--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints0.300000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints0.300000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>7.730246910512617e-62</v>
+        <v>7.59120437599245e-62</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>7.642851811666455e-62</v>
+        <v>7.676134716313393e-62</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>7.621942276598929e-62</v>
+        <v>7.78823120300044e-62</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>7.662002388099317e-62</v>
+        <v>7.925362985093175e-62</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>7.757516228956768e-62</v>
+        <v>8.0853992116316e-62</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>7.902967881960514e-62</v>
+        <v>8.266209031655595e-62</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>8.092841429900054e-62</v>
+        <v>8.465661594205314e-62</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>8.321620955564111e-62</v>
+        <v>8.681626048320109e-62</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>8.58379054174213e-62</v>
+        <v>8.911971543040099e-62</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>8.873834271223733e-62</v>
+        <v>9.154567227405493e-62</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>9.186236226797383e-62</v>
+        <v>9.40728225045553e-62</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>9.515480491252664e-62</v>
+        <v>9.667985761230395e-62</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>9.856051147379259e-62</v>
+        <v>9.934546908770321e-62</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>1.020243227796549e-61</v>
+        <v>1.020483484211448e-61</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>1.054910796580102e-61</v>
+        <v>1.04767187103031e-61</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>1.089056229367509e-61</v>
+        <v>1.074806766237606e-61</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.122127934437733e-61</v>
+        <v>1.101675084737358e-61</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.153574320069611e-61</v>
+        <v>1.128063741433484e-61</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.182860070278171e-61</v>
+        <v>1.153763491987878e-61</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.209777169888694e-61</v>
+        <v>1.17864232870223e-61</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.234420725356699e-61</v>
+        <v>1.202639774700673e-61</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.256897274107452e-61</v>
+        <v>1.225698050594452e-61</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.27731335356618e-61</v>
+        <v>1.247759376994778e-61</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.295775501158136e-61</v>
+        <v>1.268765974512888e-61</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.312390254308498e-61</v>
+        <v>1.288660063759938e-61</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.327264150442518e-61</v>
+        <v>1.307383865347168e-61</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.340503726985442e-61</v>
+        <v>1.324879599885809e-61</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.352215521362463e-61</v>
+        <v>1.341089487987027e-61</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.362506070998827e-61</v>
+        <v>1.355955750262057e-61</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.37148191331976e-61</v>
+        <v>1.369420607322109e-61</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.379249585750502e-61</v>
+        <v>1.381426279778409e-61</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.385915625716259e-61</v>
+        <v>1.391914988242136e-61</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.39158657064227e-61</v>
+        <v>1.400828953324519e-61</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.396368957953768e-61</v>
+        <v>1.408110395636775e-61</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.400351082163297e-61</v>
+        <v>1.41370836665796e-61</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.403499142722317e-61</v>
+        <v>1.417617635085897e-61</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.405729228644512e-61</v>
+        <v>1.419851732947762e-61</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.406957276160251e-61</v>
+        <v>1.420424249478833e-61</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.40709922149991e-61</v>
+        <v>1.4193487739144e-61</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.406071000893866e-61</v>
+        <v>1.416638895489749e-61</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.403788550572487e-61</v>
+        <v>1.412308203440156e-61</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.400167806766155e-61</v>
+        <v>1.40637028700092e-61</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.39512470570524e-61</v>
+        <v>1.39883873540732e-61</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.38857518362011e-61</v>
+        <v>1.389727137894629e-61</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.380435176741154e-61</v>
+        <v>1.379049083698154e-61</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.370620621298739e-61</v>
+        <v>1.366818162053172e-61</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.359047453523241e-61</v>
+        <v>1.353047962194966e-61</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.345631609645014e-61</v>
+        <v>1.337752073358802e-61</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.330289025894467e-61</v>
+        <v>1.320944084780003e-61</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.312951555259762e-61</v>
+        <v>1.302646989798073e-61</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.293755676283144e-61</v>
+        <v>1.283004680748659e-61</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.272979825513589e-61</v>
+        <v>1.262244923072071e-61</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.250905295064141e-61</v>
+        <v>1.240597169362623e-61</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.227813377047837e-61</v>
+        <v>1.218290872214624e-61</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.203985363577806e-61</v>
+        <v>1.195555484222472e-61</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.179702546767085e-61</v>
+        <v>1.172620457980476e-61</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.155246218728743e-61</v>
+        <v>1.149715246082975e-61</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.130897671575815e-61</v>
+        <v>1.127069301124278e-61</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.106938197421434e-61</v>
+        <v>1.104912075698783e-61</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.083649088378634e-61</v>
+        <v>1.083473022400799e-61</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.061311636560455e-61</v>
+        <v>1.062981593824638e-61</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>1.040199397355554e-61</v>
+        <v>1.043660369384267e-61</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>1.020395652878794e-61</v>
+        <v>1.025562892805986e-61</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>1.001786299753628e-61</v>
+        <v>1.008567353749755e-61</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>9.842480748349376e-62</v>
+        <v>9.925438044858301e-62</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>9.676577149776719e-62</v>
+        <v>9.773622972845286e-62</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>9.518919570367112e-62</v>
+        <v>9.62892884416105e-62</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>9.368275378669406e-62</v>
+        <v>9.490056181508172e-62</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>9.223411943233028e-62</v>
+        <v>9.355705507589769e-62</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>9.083096632606817e-62</v>
+        <v>9.224577345108418e-62</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>8.946096815339636e-62</v>
+        <v>9.095372216766704e-62</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>8.811179859980881e-62</v>
+        <v>8.966790645267724e-62</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>8.677113135079405e-62</v>
+        <v>8.837533153314068e-62</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>8.542664009184253e-62</v>
+        <v>8.706300263608492e-62</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>8.406599850844272e-62</v>
+        <v>8.57179249885357e-62</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>8.267688028608869e-62</v>
+        <v>8.432710381752419e-62</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>8.124695911026902e-62</v>
+        <v>8.28775443500762e-62</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>7.97639086664721e-62</v>
+        <v>8.135625181321726e-62</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>7.821540264019218e-62</v>
+        <v>7.975023143397894e-62</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>7.658911471691775e-62</v>
+        <v>7.804648843938682e-62</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>7.48727185821392e-62</v>
+        <v>7.623202805646857e-62</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>7.305388792134447e-62</v>
+        <v>7.429385551224907e-62</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>7.112029642002869e-62</v>
+        <v>7.221897603376098e-62</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>6.905961776367993e-62</v>
+        <v>6.999439484802944e-62</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>6.685952563778562e-62</v>
+        <v>6.76071171820788e-62</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>6.450769372784187e-62</v>
+        <v>6.504414826294286e-62</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>6.19917957193363e-62</v>
+        <v>6.229249331764619e-62</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>5.931049696423484e-62</v>
+        <v>5.935249770609984e-62</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>5.651959906589107e-62</v>
+        <v>5.629385070323231e-62</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>5.369341059833745e-62</v>
+        <v>5.320870273203013e-62</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>5.090624963061017e-62</v>
+        <v>5.018921573917614e-62</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>4.823243423174564e-62</v>
+        <v>4.732755167135351e-62</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>4.574628247079077e-62</v>
+        <v>4.471587247525662e-62</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>4.352211241678179e-62</v>
+        <v>4.244634009756841e-62</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>4.163424213875628e-62</v>
+        <v>4.061111648497355e-62</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>4.015698970575908e-62</v>
+        <v>3.930236358416376e-62</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>3.91646731868273e-62</v>
+        <v>3.861224334182312e-62</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>3.873161065100076e-62</v>
+        <v>3.863291770463839e-62</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>3.893212016731997e-62</v>
+        <v>3.945654861929802e-62</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>3.98405198048243e-62</v>
+        <v>4.117529803248674e-62</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>7.377015773975485e-66</v>
+        <v>7.421730539921167e-66</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>9.333947014091041e-66</v>
+        <v>9.412814977429404e-66</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>8.757678115460206e-66</v>
+        <v>8.952965445344859e-66</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>1.131388337869141e-65</v>
+        <v>1.139970054968485e-65</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>1.375022047259463e-65</v>
+        <v>1.369330854216664e-65</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>1.382275297894312e-65</v>
+        <v>1.376702627980529e-65</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>2.158870925805319e-65</v>
+        <v>2.166669751072496e-65</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>5.532316353105777e-65</v>
+        <v>5.553002421564761e-65</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.096708225245451e-64</v>
+        <v>1.099776646416017e-64</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.314058820552669e-64</v>
+        <v>1.318886905178933e-64</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.335286886170069e-64</v>
+        <v>1.338136683189311e-64</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.300663017919599e-64</v>
+        <v>1.29845884394374e-64</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.219520355885536e-64</v>
+        <v>1.216310303790033e-64</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.119818506603679e-64</v>
+        <v>1.119436254346925e-64</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.03904189924356e-64</v>
+        <v>1.040841220065477e-64</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>9.796082651399261e-65</v>
+        <v>9.802773899726261e-65</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>9.374427834711553e-65</v>
+        <v>9.347670629934899e-65</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>9.23962151202608e-65</v>
+        <v>9.247697013633016e-65</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>8.748736758240708e-65</v>
+        <v>8.771048783866481e-65</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>8.247042163138453e-65</v>
+        <v>8.235894013683924e-65</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>8.087967687864718e-65</v>
+        <v>8.068474479298016e-65</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>7.786018187298223e-65</v>
+        <v>7.77007196739108e-65</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>7.396537443537446e-65</v>
+        <v>7.388023262260224e-65</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>7.038643684841808e-65</v>
+        <v>7.036891149472714e-65</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>6.695316697097927e-65</v>
+        <v>6.69839079268206e-65</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>6.334788028451025e-65</v>
+        <v>6.339845621089579e-65</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>5.927508594239185e-65</v>
+        <v>5.930993307201674e-65</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>5.466574056815365e-65</v>
+        <v>5.466204639239868e-65</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>4.958318685396455e-65</v>
+        <v>4.954251455460421e-65</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>4.409462273408498e-65</v>
+        <v>4.404263200539776e-65</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>3.835238629975296e-65</v>
+        <v>3.832229881696752e-65</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>3.261941065296005e-65</v>
+        <v>3.26305321144971e-65</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>2.716601963699811e-65</v>
+        <v>2.722230445533479e-65</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.22364177687919e-65</v>
+        <v>2.232746691941013e-65</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>1.790255569451299e-65</v>
+        <v>1.801019741179501e-65</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>1.416659959233004e-65</v>
+        <v>1.426759439195031e-65</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.102695035372586e-65</v>
+        <v>1.109907526202575e-65</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>8.474646236471777e-66</v>
+        <v>8.509235503058691e-66</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>6.497755005170289e-66</v>
+        <v>6.500804216241947e-66</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>5.043584894604753e-66</v>
+        <v>5.026939031845846e-66</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>4.022062680578653e-66</v>
+        <v>3.995334496659522e-66</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>3.341731628229481e-66</v>
+        <v>3.312002540939e-66</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.91113500269555e-66</v>
+        <v>2.882955094941126e-66</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>2.63881606911422e-66</v>
+        <v>2.61420408892179e-66</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>2.436844929779028e-66</v>
+        <v>2.415397897177066e-66</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>2.265742198703942e-66</v>
+        <v>2.246141148513261e-66</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>2.121232229323714e-66</v>
+        <v>2.102336271362909e-66</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.999831846118707e-66</v>
+        <v>1.980702793583112e-66</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.898057873569323e-66</v>
+        <v>1.877960243031011e-66</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.812427136156099e-66</v>
+        <v>1.790828147563884e-66</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.73945645835943e-66</v>
+        <v>1.716026035038867e-66</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.675662664659761e-66</v>
+        <v>1.650273433313141e-66</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.617562579537511e-66</v>
+        <v>1.590289870243868e-66</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.56213313154112e-66</v>
+        <v>1.533226196508679e-66</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.508630604986841e-66</v>
+        <v>1.478370036239197e-66</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.457015835238386e-66</v>
+        <v>1.425669492284962e-66</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.407249863921238e-66</v>
+        <v>1.375072860854836e-66</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.359293732660808e-66</v>
+        <v>1.326528438157606e-66</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.313108483082532e-66</v>
+        <v>1.279984520402088e-66</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.268655156811827e-66</v>
+        <v>1.235389403797075e-66</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.225894795474167e-66</v>
+        <v>1.192691384551421e-66</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.184788440694968e-66</v>
+        <v>1.151838758873921e-66</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.145297134099649e-66</v>
+        <v>1.11277982297337e-66</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.107381917313679e-66</v>
+        <v>1.075462873058617e-66</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.071003831962478e-66</v>
+        <v>1.039836205338459e-66</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.036123919671479e-66</v>
+        <v>1.005848116021708e-66</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.002703222066105e-66</v>
+        <v>9.734469013171652e-67</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>9.7070278077182e-67</v>
+        <v>9.425808574336727e-67</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>9.400836374140459e-67</v>
+        <v>9.1319828058003e-67</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>9.108068336182042e-67</v>
+        <v>8.852474669650382e-67</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>8.828334110097576e-67</v>
+        <v>8.586767127975365e-67</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>8.561244112141273e-67</v>
+        <v>8.334343142863255e-67</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>8.306408758567496e-67</v>
+        <v>8.094685676402193e-67</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>8.063438465630492e-67</v>
+        <v>7.867277690680215e-67</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>7.831943649584837e-67</v>
+        <v>7.651602147785669e-67</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>7.611534726684776e-67</v>
+        <v>7.447142009806582e-67</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>7.401822113184568e-67</v>
+        <v>7.253380238831012e-67</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>7.20241622533876e-67</v>
+        <v>7.069799796947268e-67</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>7.012927479401613e-67</v>
+        <v>6.895883646243401e-67</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>6.832966291627479e-67</v>
+        <v>6.731114748807547e-67</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>6.662143078270643e-67</v>
+        <v>6.574976066727777e-67</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>6.500068255585612e-67</v>
+        <v>6.426950562092368e-67</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>6.346352239826665e-67</v>
+        <v>6.28652119698939e-67</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>6.200605447248158e-67</v>
+        <v>6.153170933506978e-67</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>6.062438294104383e-67</v>
+        <v>6.026382733733216e-67</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>5.931461196649824e-67</v>
+        <v>5.905639559756354e-67</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>5.807284571138774e-67</v>
+        <v>5.790424373664475e-67</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>5.689518843790474e-67</v>
+        <v>5.680220160544569e-67</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>5.577810045931445e-67</v>
+        <v>5.574592081417996e-67</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>5.471919784315546e-67</v>
+        <v>5.473372043272975e-67</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>5.371633075404153e-67</v>
+        <v>5.376445982273324e-67</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>5.276734935658779e-67</v>
+        <v>5.283699834582999e-67</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>5.187010381540798e-67</v>
+        <v>5.195019536365815e-67</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>5.102244429511636e-67</v>
+        <v>5.110291023785641e-67</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>5.022222096032674e-67</v>
+        <v>5.029400233006302e-67</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>4.946728397565411e-67</v>
+        <v>4.952233100191737e-67</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>4.875548350571229e-67</v>
+        <v>4.878675561505772e-67</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>4.808466971511552e-67</v>
+        <v>4.808613553112273e-67</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>4.745269276847771e-67</v>
+        <v>4.741933011175072e-67</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>4.685740283041368e-67</v>
+        <v>4.678519871858096e-67</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>4.629665006553734e-67</v>
+        <v>4.618260071325176e-67</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>4.576828463846269e-67</v>
+        <v>4.561039545740154e-67</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>4.52701567138044e-67</v>
+        <v>4.506744231266944e-67</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>4.480011645617648e-67</v>
+        <v>4.455260064069385e-67</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>4.43560140301931e-67</v>
+        <v>4.406472980311338e-67</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>4.393569960046835e-67</v>
+        <v>4.360268916156653e-67</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>4.353702333161678e-67</v>
+        <v>4.31653380776923e-67</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>4.315783538825245e-67</v>
+        <v>4.275153591312915e-67</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>4.27959859349894e-67</v>
+        <v>4.236014202951555e-67</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>4.244932513644218e-67</v>
+        <v>4.199001578849048e-67</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>4.211570315722484e-67</v>
+        <v>4.164001655169242e-67</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>4.179297016195159e-67</v>
+        <v>4.130900368075999e-67</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>4.147897631523653e-67</v>
+        <v>4.099583653733172e-67</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>4.117157178169415e-67</v>
+        <v>4.06993744830465e-67</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>4.087062133022254e-67</v>
+        <v>4.042019872262719e-67</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>4.058675349650109e-67</v>
+        <v>4.016809004283882e-67</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>4.033417691255068e-67</v>
+        <v>3.995588906913327e-67</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>4.01271026213799e-67</v>
+        <v>3.979643848758665e-67</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>3.997974166599736e-67</v>
+        <v>3.970258098427511e-67</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>3.990630508941173e-67</v>
+        <v>3.968715924527489e-67</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>3.992100393463178e-67</v>
+        <v>3.976301595666221e-67</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>4.003804924466609e-67</v>
+        <v>3.994299380451323e-67</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>4.027165206252348e-67</v>
+        <v>4.023993547490432e-67</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>4.06360234312124e-67</v>
+        <v>4.066668365391139e-67</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.114537439374161e-67</v>
+        <v>4.123608102761077e-67</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>4.181391599311977e-67</v>
+        <v>4.196097028207865e-67</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>4.265585927235597e-67</v>
+        <v>4.285419410339167e-67</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.36854152744581e-67</v>
+        <v>4.392859517762521e-67</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.491679504243521e-67</v>
+        <v>4.519701619085586e-67</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>4.636420961929664e-67</v>
+        <v>4.667229982916053e-67</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>4.804187004804977e-67</v>
+        <v>4.836728877861405e-67</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>4.996321267846513e-67</v>
+        <v>5.029421893910713e-67</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>5.213344460474746e-67</v>
+        <v>5.24588805642409e-67</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>5.455281061624057e-67</v>
+        <v>5.486317713296775e-67</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>5.722148707295534e-67</v>
+        <v>5.750895852628356e-67</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>6.013965033490586e-67</v>
+        <v>6.039807462518743e-67</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>6.330747676210515e-67</v>
+        <v>6.353237531067739e-67</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>6.672514271456788e-67</v>
+        <v>6.69137104637531e-67</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>7.039282455230397e-67</v>
+        <v>7.054392996540949e-67</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>7.431069863532799e-67</v>
+        <v>7.442488369664615e-67</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>7.847894132365489e-67</v>
+        <v>7.855842153846303e-67</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>8.289772897729398e-67</v>
+        <v>8.294639337185446e-67</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>8.756723795626011e-67</v>
+        <v>8.759064907782029e-67</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>9.248764462056861e-67</v>
+        <v>9.249303853736081e-67</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>9.765206911768019e-67</v>
+        <v>9.764821652362359e-67</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.029671955297313e-66</v>
+        <v>1.029627003269944e-66</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.082817758844542e-66</v>
+        <v>1.082839348422426e-66</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.134434944844336e-66</v>
+        <v>1.134582762217652e-66</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.183000356322469e-66</v>
+        <v>1.183320806179521e-66</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.22699083630479e-66</v>
+        <v>1.227517041832005e-66</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.264883227817119e-66</v>
+        <v>1.265635030699051e-66</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.295154373885293e-66</v>
+        <v>1.296138334304618e-66</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.316281117535105e-66</v>
+        <v>1.317490514172625e-66</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.326740301792394e-66</v>
+        <v>1.328155131827035e-66</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.325008769682979e-66</v>
+        <v>1.32659574879179e-66</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.309563364232684e-66</v>
+        <v>1.311275926590841e-66</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.278880928467334e-66</v>
+        <v>1.280659226748135e-66</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.231603827171885e-66</v>
+        <v>1.23337579437522e-66</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.168729230343508e-66</v>
+        <v>1.170425685962062e-66</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.093006655861559e-66</v>
+        <v>1.094572547260031e-66</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.007227344001756e-66</v>
+        <v>1.008622014067632e-66</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>9.141825350397935e-67</v>
+        <v>9.153797221833546e-67</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>8.166634692514989e-67</v>
+        <v>8.176513074058156e-67</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>7.174613869125711e-67</v>
+        <v>7.182424055335064e-67</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>6.19367528298751e-67</v>
+        <v>6.199586523649585e-67</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>5.251731336857374e-67</v>
+        <v>5.256056836986629e-67</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>4.376694433493567e-67</v>
+        <v>4.379891353332372e-67</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>3.596476975653057e-67</v>
+        <v>3.599146430671699e-67</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.938991366092988e-67</v>
+        <v>2.941878426989665e-67</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.432150007571361e-67</v>
+        <v>2.436143700272189e-67</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.103865302845258e-67</v>
+        <v>2.109998608504267e-67</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>1.974494436138785e-67</v>
+        <v>1.983846171086081e-67</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>1.958671967917897e-67</v>
+        <v>1.970993757945337e-67</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>1.89323822172207e-67</v>
+        <v>1.905944183913598e-67</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>1.613481299197833e-67</v>
+        <v>1.621629650200115e-67</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>1.089957422080717e-67</v>
+        <v>1.088955594981442e-67</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>6.483539838547654e-68</v>
+        <v>6.410490383314184e-68</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>4.77967978760596e-68</v>
+        <v>4.711199537300567e-68</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>4.502425750424238e-68</v>
+        <v>4.46864953239238e-68</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>4.264770098631215e-68</v>
+        <v>4.25690647210693e-68</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.778131503038905e-68</v>
+        <v>3.780583150647482e-68</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.145389677153336e-68</v>
+        <v>3.147200583441904e-68</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>2.469904388218652e-68</v>
+        <v>2.464773877479213e-68</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>1.852466947618627e-68</v>
+        <v>1.838648177493297e-68</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>1.343221967731605e-68</v>
+        <v>1.321520351572116e-68</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>9.459492196447223e-69</v>
+        <v>9.178900695877264e-69</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>6.62718485334506e-69</v>
+        <v>6.30479432853429e-69</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>4.955995467778411e-69</v>
+        <v>4.620105426828875e-69</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>4.466621859512043e-69</v>
+        <v>4.152055003893502e-69</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>5.179761848312238e-69</v>
+        <v>4.927864072862206e-69</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>7.116113253946443e-69</v>
+        <v>6.974753646870242e-69</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>1.029637389617921e-68</v>
+        <v>1.031994473904981e-68</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>1.494101543429789e-68</v>
+        <v>1.518013536846431e-68</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>2.359019342380417e-68</v>
+        <v>2.397214525384949e-68</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>3.890339751286344e-68</v>
+        <v>3.920707902903473e-68</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>5.67376897548405e-68</v>
+        <v>5.685045677234815e-68</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>7.094199396989929e-68</v>
+        <v>7.093664440197432e-68</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>7.928979498740375e-68</v>
+        <v>7.931568048351695e-68</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>8.455509703826293e-68</v>
+        <v>8.469937367201172e-68</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>8.983637560596556e-68</v>
+        <v>9.011500077769917e-68</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>9.823185043433561e-68</v>
+        <v>9.858958727963032e-68</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>1.114895355855985e-67</v>
+        <v>1.118232280041681e-67</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>1.268554909507654e-67</v>
+        <v>1.270916689038754e-67</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>1.4063862495278e-67</v>
+        <v>1.40749659207529e-67</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>1.491478460145886e-67</v>
+        <v>1.491519481439078e-67</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>1.490765230282472e-67</v>
+        <v>1.490348167617269e-67</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>1.422882752596481e-67</v>
+        <v>1.422654118115043e-67</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>1.343484786862057e-67</v>
+        <v>1.343844384160335e-67</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>1.309029546247538e-67</v>
+        <v>1.310124342406453e-67</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>1.361614353312156e-67</v>
+        <v>1.36339041041062e-67</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>1.481680524099579e-67</v>
+        <v>1.48410595820724e-67</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.633126166456762e-67</v>
+        <v>1.636250970792281e-67</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.779849185931438e-67</v>
+        <v>1.783805231594036e-67</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.885747580730592e-67</v>
+        <v>1.890748616211373e-67</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.924785188081766e-67</v>
+        <v>1.931073752562969e-67</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.908686114848693e-67</v>
+        <v>1.916334392545781e-67</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.858027211648936e-67</v>
+        <v>1.866890342909904e-67</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.793385329100027e-67</v>
+        <v>1.803101410405397e-67</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.734597183347701e-67</v>
+        <v>1.744599105708651e-67</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.689879740889135e-67</v>
+        <v>1.699581046914925e-67</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.658217783570542e-67</v>
+        <v>1.667160335603975e-67</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.63834140503749e-67</v>
+        <v>1.646199458874535e-67</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.628980698935572e-67</v>
+        <v>1.635560903825361e-67</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.628865758910352e-67</v>
+        <v>1.63410715755518e-67</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.636726678607406e-67</v>
+        <v>1.64070070716273e-67</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.651293551672317e-67</v>
+        <v>1.654204039746758e-67</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.671294541716068e-67</v>
+        <v>1.673477218056949e-67</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.695206415787574e-67</v>
+        <v>1.697064521374487e-67</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.721007776451292e-67</v>
+        <v>1.722884476156042e-67</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.746618581878324e-67</v>
+        <v>1.748781944645112e-67</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.769958790239807e-67</v>
+        <v>1.772601789085229e-67</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.788948359706866e-67</v>
+        <v>1.792188871719917e-67</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.801507248450632e-67</v>
+        <v>1.805388054792701e-67</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>1.805555414642218e-67</v>
+        <v>1.81004420054709e-67</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>1.799012816452757e-67</v>
+        <v>1.804002171226613e-67</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>1.779804128415332e-67</v>
+        <v>1.785111697196824e-67</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>1.746829295481913e-67</v>
+        <v>1.752229160869159e-67</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>1.701152262003055e-67</v>
+        <v>1.70644457584051e-67</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>1.644127931324076e-67</v>
+        <v>1.64914827699474e-67</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>1.577111206790258e-67</v>
+        <v>1.581730599215676e-67</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>1.50145699174698e-67</v>
+        <v>1.505581877387242e-67</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.418520189539528e-67</v>
+        <v>1.422092446393271e-67</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.32965570351318e-67</v>
+        <v>1.332652641117583e-67</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.236218437013331e-67</v>
+        <v>1.238652796444122e-67</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.139570686883465e-67</v>
+        <v>1.141489293858056e-67</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.041187198329623e-67</v>
+        <v>1.042650478134698e-67</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>9.426302197667829e-68</v>
+        <v>9.436962565230757e-68</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>8.454643054828735e-68</v>
+        <v>8.46188422077055e-68</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>7.512540097656903e-68</v>
+        <v>7.516887678503671e-68</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>6.615638869030343e-68</v>
+        <v>6.617590868967498e-68</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>5.779584911828271e-68</v>
+        <v>5.779611722700601e-68</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>5.02002376892867e-68</v>
+        <v>5.018568170240333e-68</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>4.352600983209943e-68</v>
+        <v>4.350078142124452e-68</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>3.788421154935202e-68</v>
+        <v>3.785216036297658e-68</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>3.319861744427545e-68</v>
+        <v>3.316318429529394e-68</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>2.934473243640363e-68</v>
+        <v>2.930892177103604e-68</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>2.619806139585928e-68</v>
+        <v>2.616444129360298e-68</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>2.363410919276407e-68</v>
+        <v>2.36048113663938e-68</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>2.152838069724298e-68</v>
+        <v>2.150510049281085e-68</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>1.975638077941747e-68</v>
+        <v>1.974037717625298e-68</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>1.819361430940956e-68</v>
+        <v>1.818570992011957e-68</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>1.67158578720076e-68</v>
+        <v>1.671643904540769e-68</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>1.524984876173119e-68</v>
+        <v>1.525888488786112e-68</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>1.383292334781773e-68</v>
+        <v>1.385000875525507e-68</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>1.251691368349917e-68</v>
+        <v>1.25412731306369e-68</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>1.135365182200554e-68</v>
+        <v>1.138414049705203e-68</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.039496981656748e-68</v>
+        <v>1.043007333754653e-68</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>9.692699720415415e-69</v>
+        <v>9.730534135166214e-69</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>9.29867358678066e-69</v>
+        <v>9.336985372957804e-69</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>9.264723468893494e-69</v>
+        <v>9.300889533966985e-69</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>9.641607669183364e-69</v>
+        <v>9.672643076094511e-69</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>1.041993450800633e-68</v>
+        <v>1.044292525534684e-68</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>1.14994582830482e-68</v>
+        <v>1.151221500135148e-68</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>1.277238941678178e-68</v>
+        <v>1.277350164683778e-68</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>1.413093833168021e-68</v>
+        <v>1.411977452453544e-68</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>1.546731545021476e-68</v>
+        <v>1.544402296717228e-68</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>1.667373119485859e-68</v>
+        <v>1.663923630747801e-68</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>1.764239598808458e-68</v>
+        <v>1.759840387818206e-68</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>1.826552025236436e-68</v>
+        <v>1.821451501201263e-68</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>1.845704233610345e-68</v>
+        <v>1.840213063928262e-68</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>1.824461583622995e-68</v>
+        <v>1.818870877895669e-68</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>1.769297073441103e-68</v>
+        <v>1.763851707710891e-68</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>1.686685741668494e-68</v>
+        <v>1.681584343737881e-68</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.583102626908928e-68</v>
+        <v>1.578497576340526e-68</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>1.465022767766178e-68</v>
+        <v>1.461020195882729e-68</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>1.33892120284396e-68</v>
+        <v>1.335580992728337e-68</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>1.211272970746168e-68</v>
+        <v>1.208608757241367e-68</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>1.088553010103745e-68</v>
+        <v>1.086532180529874e-68</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>9.758962867167006e-69</v>
+        <v>9.744495908065052e-69</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>8.737385831416681e-69</v>
+        <v>8.727938343567045e-69</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>7.814861377787854e-69</v>
+        <v>7.809755969314914e-69</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>6.98545189028243e-69</v>
+        <v>6.984055642819378e-69</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>6.243219752902002e-69</v>
+        <v>6.24494422159085e-69</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>5.582227349649139e-69</v>
+        <v>5.586528563140714e-69</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>4.996537064525392e-69</v>
+        <v>5.002915524979338e-69</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>4.480211281532669e-69</v>
+        <v>4.48821196461745e-69</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>4.027312384672685e-69</v>
+        <v>4.036524739565578e-69</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>3.631902757947749e-69</v>
+        <v>3.641960707334853e-69</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>3.288044785359547e-69</v>
+        <v>3.298626725435776e-69</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.989800850909864e-69</v>
+        <v>3.000629651378948e-69</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>2.731233338600868e-69</v>
+        <v>2.742076342675357e-69</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>2.506404632434321e-69</v>
+        <v>2.517073656835582e-69</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>2.309377116412047e-69</v>
+        <v>2.319728451370262e-69</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>2.134213174536124e-69</v>
+        <v>2.144147583790295e-69</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.974975190808364e-69</v>
+        <v>1.984437911606309e-69</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.82626716864677e-69</v>
+        <v>1.835243758658424e-69</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.686311256452491e-69</v>
+        <v>1.694799850174749e-69</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.554812062476929e-69</v>
+        <v>1.56281200387106e-69</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.431478673675723e-69</v>
+        <v>1.438990481825086e-69</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.316020177004579e-69</v>
+        <v>1.32304554611462e-69</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.208145659419154e-69</v>
+        <v>1.214687458817411e-69</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.107564207875249e-69</v>
+        <v>1.113626482011347e-69</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.013984909328518e-69</v>
+        <v>1.019572877774173e-69</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>9.271168507346274e-70</v>
+        <v>9.322369081836443e-70</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>8.466691190493602e-70</v>
+        <v>8.513288353176329e-70</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>7.723508012283801e-70</v>
+        <v>7.76558921253892e-70</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>7.038709842273615e-70</v>
+        <v>7.076374280701852e-70</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>6.409387550020709e-70</v>
+        <v>6.442746178443683e-70</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>5.832632005081798e-70</v>
+        <v>5.861807526542025e-70</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>5.305534077013702e-70</v>
+        <v>5.330660945774586e-70</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>4.825184635374145e-70</v>
+        <v>4.846409056919988e-70</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>4.388674549719302e-70</v>
+        <v>4.406154480755295e-70</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>3.993094689606664e-70</v>
+        <v>4.006999838058892e-70</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>3.635535924593581e-70</v>
+        <v>3.646047749609027e-70</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>3.313089124236444e-70</v>
+        <v>3.320400836182978e-70</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>3.022845158092884e-70</v>
+        <v>3.027161718559274e-70</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>2.761894895719418e-70</v>
+        <v>2.763433017515319e-70</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>2.527329206673359e-70</v>
+        <v>2.526317353829325e-70</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>2.316238960511929e-70</v>
+        <v>2.312917348279407e-70</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.125715026791789e-70</v>
+        <v>2.120335621643116e-70</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.952848275070178e-70</v>
+        <v>1.945674794698586e-70</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.794837048320459e-70</v>
+        <v>1.786143496758508e-70</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.650132757526989e-70</v>
+        <v>1.64018634560916e-70</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.517997000045538e-70</v>
+        <v>1.507047102425499e-70</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.397704955423122e-70</v>
+        <v>1.385982925446066e-70</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.288531803206436e-70</v>
+        <v>1.276250972909081e-70</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.189752722942506e-70</v>
+        <v>1.177108403053098e-70</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.100642894178321e-70</v>
+        <v>1.087812374116631e-70</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.020477496460633e-70</v>
+        <v>1.007620044337959e-70</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>9.48531709336439e-71</v>
+        <v>9.357885719556041e-71</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>8.840807123527056e-71</v>
+        <v>8.715751152080597e-71</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>8.263996850562296e-71</v>
+        <v>8.142368323336496e-71</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>7.747638069940288e-71</v>
+        <v>7.630308815709165e-71</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>7.284482577129225e-71</v>
+        <v>7.172144211582075e-71</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>6.867282167598726e-71</v>
+        <v>6.760446093340097e-71</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>6.488788636818236e-71</v>
+        <v>6.387786043367937e-71</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>6.141753780256198e-71</v>
+        <v>6.04673564404931e-71</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>5.818929393382098e-71</v>
+        <v>5.72986647776896e-71</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>5.513175765375914e-71</v>
+        <v>5.42986156400639e-71</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>5.220487901310301e-71</v>
+        <v>5.142623681528482e-71</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>4.940398156111985e-71</v>
+        <v>4.867688925624257e-71</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>4.672628273997827e-71</v>
+        <v>4.604787918916869e-71</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>4.416899999183968e-71</v>
+        <v>4.353651284028756e-71</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>4.172935075887489e-71</v>
+        <v>4.114009643583288e-71</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>3.940455248324581e-71</v>
+        <v>3.885593620202948e-71</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>3.719182260712085e-71</v>
+        <v>3.668133836510875e-71</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>3.508837857266814e-71</v>
+        <v>3.461360915130164e-71</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>3.309143782205013e-71</v>
+        <v>3.265005478683361e-71</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>3.119821779743496e-71</v>
+        <v>3.07879814979357e-71</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.940593594099046e-71</v>
+        <v>2.902469551083863e-71</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.771180969487964e-71</v>
+        <v>2.735750305176838e-71</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.611305650127039e-71</v>
+        <v>2.578371034695576e-71</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.460689380233026e-71</v>
+        <v>2.430062362263119e-71</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.319053904022277e-71</v>
+        <v>2.290554910502118e-71</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.186120965711556e-71</v>
+        <v>2.159579302035625e-71</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.061612309517594e-71</v>
+        <v>2.036866159486665e-71</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>1.945249679656791e-71</v>
+        <v>1.922146105477931e-71</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>1.83675482034598e-71</v>
+        <v>1.815149762632546e-71</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>1.73584947580159e-71</v>
+        <v>1.715607753573234e-71</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>1.642255390240345e-71</v>
+        <v>1.623250700923011e-71</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>1.555694307878944e-71</v>
+        <v>1.537809227304866e-71</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>1.475887972933855e-71</v>
+        <v>1.459013955341562e-71</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.402558129621782e-71</v>
+        <v>1.386595507656094e-71</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.335426522159405e-71</v>
+        <v>1.320284506871434e-71</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.274214894763229e-71</v>
+        <v>1.259811575610381e-71</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.218644991649939e-71</v>
+        <v>1.204907336495911e-71</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>1.168438557036203e-71</v>
+        <v>1.155302412150984e-71</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>1.123317335138553e-71</v>
+        <v>1.110727425198425e-71</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>1.08300307017366e-71</v>
+        <v>1.070912998261198e-71</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>1.047217506358178e-71</v>
+        <v>1.035589753962248e-71</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>1.015682387908667e-71</v>
+        <v>1.004488314924428e-71</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>9.881194590418065e-72</v>
+        <v>9.773393037707098e-72</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>9.642504639741712e-72</v>
+        <v>9.538733431239608e-72</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>9.437983459368292e-72</v>
+        <v>9.338219563405659e-72</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>9.265043665225179e-72</v>
+        <v>9.169304280467649e-72</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>9.121240844633405e-72</v>
+        <v>9.02954783283054e-72</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>9.004134377431697e-72</v>
+        <v>8.916513319945646e-72</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>8.911283643458694e-72</v>
+        <v>8.82776384126419e-72</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>8.840248022552793e-72</v>
+        <v>8.760862496237161e-72</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>8.788586894552654e-72</v>
+        <v>8.713372384315802e-72</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>8.753859639296858e-72</v>
+        <v>8.682856604951283e-72</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>8.733625636623914e-72</v>
+        <v>8.666878257594704e-72</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>8.725444266372427e-72</v>
+        <v>8.66300044169725e-72</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>8.726874908380939e-72</v>
+        <v>8.668786256710059e-72</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>8.735476942488032e-72</v>
+        <v>8.681798802084296e-72</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>8.748809748532254e-72</v>
+        <v>8.699601177271094e-72</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>8.764432706352195e-72</v>
+        <v>8.719756481721637e-72</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>8.779905195786406e-72</v>
+        <v>8.739827814887059e-72</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>8.792786596673441e-72</v>
+        <v>8.757378276218498e-72</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>8.800636288851888e-72</v>
+        <v>8.769970965167139e-72</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>8.801013652160299e-72</v>
+        <v>8.775168981184115e-72</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>8.791478066437246e-72</v>
+        <v>8.770535423720583e-72</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>8.769588911521283e-72</v>
+        <v>8.753633392227691e-72</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>8.732905567250973e-72</v>
+        <v>8.722025986156587e-72</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>8.678987413464936e-72</v>
+        <v>8.673276304958475e-72</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>8.606116891419592e-72</v>
+        <v>8.605665274590245e-72</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>8.520352311634772e-72</v>
+        <v>8.525193393543774e-72</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>8.432484993880147e-72</v>
+        <v>8.442559902917742e-72</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>8.353373322626968e-72</v>
+        <v>8.368530622968859e-72</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>8.293875682346776e-72</v>
+        <v>8.313871373954102e-72</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>8.264850457510874e-72</v>
+        <v>8.289347976130227e-72</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>8.277156032590749e-72</v>
+        <v>8.305726249754168e-72</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>8.341650792057727e-72</v>
+        <v>8.37377201508269e-72</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>8.469193120383341e-72</v>
+        <v>8.504251092372783e-72</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>8.670641402038975e-72</v>
+        <v>8.707929301881273e-72</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>8.956854021495748e-72</v>
+        <v>8.995572463864723e-72</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>9.33868936322559e-72</v>
+        <v>9.377946398580514e-72</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>9.827005811699694e-72</v>
+        <v>9.865816926285288e-72</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.042928563996316e-71</v>
+        <v>1.046660075323025e-71</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.112980444372818e-71</v>
+        <v>1.11646934829049e-71</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.190308210872097e-71</v>
+        <v>1.193481302134642e-71</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>1.272360476045103e-71</v>
+        <v>1.275164378434238e-71</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>1.356585852442581e-71</v>
+        <v>1.358987018767823e-71</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>1.440432952615268e-71</v>
+        <v>1.442417664713936e-71</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.521350389114126e-71</v>
+        <v>1.522924757851346e-71</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.59678677448989e-71</v>
+        <v>1.597976739758588e-71</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.664190721293315e-71</v>
+        <v>1.665042052014221e-71</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.721402108551829e-71</v>
+        <v>1.721976690770795e-71</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.7680476219018e-71</v>
+        <v>1.768406507549037e-71</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.804263719648138e-71</v>
+        <v>1.804462290380134e-71</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.83018689856356e-71</v>
+        <v>1.830274865398134e-71</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.845953655420668e-71</v>
+        <v>1.845975058736974e-71</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>1.851700486992141e-71</v>
+        <v>1.851693696530665e-71</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>1.84756389005061e-71</v>
+        <v>1.847561604913174e-71</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>1.833680361368741e-71</v>
+        <v>1.8337096100185e-71</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>1.810186397719161e-71</v>
+        <v>1.810268537980602e-71</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>1.777218495874527e-71</v>
+        <v>1.777369214933473e-71</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>1.734913152607531e-71</v>
+        <v>1.735142467011138e-71</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>1.683406864690747e-71</v>
+        <v>1.683719120347505e-71</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>1.622836128896858e-71</v>
+        <v>1.62323000107659e-71</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>1.553337441998583e-71</v>
+        <v>1.553805935332446e-71</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>1.475047300768445e-71</v>
+        <v>1.47557774924893e-71</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>1.388102201979153e-71</v>
+        <v>1.388676268960086e-71</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>1.292638642403446e-71</v>
+        <v>1.293232320599985e-71</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>1.189000450938563e-71</v>
+        <v>1.18958505538188e-71</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>1.078921426181525e-71</v>
+        <v>1.079470251059479e-71</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>9.647067116231617e-72</v>
+        <v>9.651977665643486e-72</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>8.486632071838638e-72</v>
+        <v>8.490792256695097e-72</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>7.330978127844386e-72</v>
+        <v>7.334262521483985e-72</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>6.203174283452756e-72</v>
+        <v>6.205504697740353e-72</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>5.126289537870808e-72</v>
+        <v>5.127635023197551e-72</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>4.12339289030541e-72</v>
+        <v>4.123769735588746e-72</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>3.217553339960748e-72</v>
+        <v>3.21702507264442e-72</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>2.431839886043766e-72</v>
+        <v>2.430517272097815e-72</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.789300961277795e-72</v>
+        <v>1.787341971508047e-72</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.301593361154379e-72</v>
+        <v>1.299184510253731e-72</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>9.500849453071e-73</v>
+        <v>9.47391674731371e-73</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>7.111651860656129e-73</v>
+        <v>7.083237088028046e-73</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>5.612235557589919e-73</v>
+        <v>5.583408563292849e-73</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>4.766495267170379e-73</v>
+        <v>4.738033611727939e-73</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>4.338325712691019e-73</v>
+        <v>4.310714671948631e-73</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>4.092402388770185e-73</v>
+        <v>4.06583592106027e-73</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>3.870967861889548e-73</v>
+        <v>3.845444692723418e-73</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>3.658579797893658e-73</v>
+        <v>3.634079710005054e-73</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>3.455041203679638e-73</v>
+        <v>3.43154392189252e-73</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>3.260155086144573e-73</v>
+        <v>3.237640277373124e-73</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>3.073724452185033e-73</v>
+        <v>3.052171725433661e-73</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>2.895552308698115e-73</v>
+        <v>2.874941215061447e-73</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>2.725441662580884e-73</v>
+        <v>2.705751695243775e-73</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>2.563195520729953e-73</v>
+        <v>2.544406114967477e-73</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>2.408616890042396e-73</v>
+        <v>2.390707423219851e-73</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>2.261508777415259e-73</v>
+        <v>2.244458568988166e-73</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.121674189745196e-73</v>
+        <v>2.105462501259299e-73</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.988916133929258e-73</v>
+        <v>1.973522169020525e-73</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.863037616864476e-73</v>
+        <v>1.848440521259096e-73</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.743841645447539e-73</v>
+        <v>1.730020506961924e-73</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.63113122657558e-73</v>
+        <v>1.618065075116367e-73</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.524709367145313e-73</v>
+        <v>1.51237717470936e-73</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.424379074053761e-73</v>
+        <v>1.41275975472815e-73</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.329943354197924e-73</v>
+        <v>1.319015764159958e-73</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.241205214474549e-73</v>
+        <v>1.230948151991757e-73</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.157967661780641e-73</v>
+        <v>1.148359867210772e-73</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.080033703013186e-73</v>
+        <v>1.071053858804213e-73</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.007206345068961e-73</v>
+        <v>9.988330757590812e-74</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>9.392885948449553e-74</v>
+        <v>9.315004670625879e-74</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>8.760834592381429e-74</v>
+        <v>8.688589817019287e-74</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>8.173939451453266e-74</v>
+        <v>8.107115686641311e-74</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>7.6302305946353e-74</v>
+        <v>7.568611769364404e-74</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>7.127738090895737e-74</v>
+        <v>7.071107555059011e-74</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.66449200920425e-74</v>
+        <v>6.61263253359703e-74</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.23852241853039e-74</v>
+        <v>6.191216194850235e-74</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>5.847859387842562e-74</v>
+        <v>5.804888028689272e-74</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>5.490532986110343e-74</v>
+        <v>5.451677524985938e-74</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>5.164573282303188e-74</v>
+        <v>5.129614173611919e-74</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>4.868010345389686e-74</v>
+        <v>4.836727464438039e-74</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>4.598874244339323e-74</v>
+        <v>4.571046887336004e-74</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>4.355195048121478e-74</v>
+        <v>4.330601932177428e-74</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>4.135002825704891e-74</v>
+        <v>4.11342208883328e-74</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>3.93632764605914e-74</v>
+        <v>3.917536847175362e-74</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>3.757199578153039e-74</v>
+        <v>3.740975697074726e-74</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>3.595648690955958e-74</v>
+        <v>3.581768128402963e-74</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>3.449705362047172e-74</v>
+        <v>3.43794394218332e-74</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>3.317722804767139e-74</v>
+        <v>3.307858434105619e-74</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>3.198988277970849e-74</v>
+        <v>3.19080863826003e-74</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>3.092956983832482e-74</v>
+        <v>3.086260915252728e-74</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.999084124525939e-74</v>
+        <v>2.99368162568961e-74</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.916824902225411e-74</v>
+        <v>2.912537130176867e-74</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.845634519105048e-74</v>
+        <v>2.84229378932064e-74</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.784968177338812e-74</v>
+        <v>2.782417963726892e-74</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.734281079100864e-74</v>
+        <v>2.732376014001778e-74</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.693028426565325e-74</v>
+        <v>2.691634300751417e-74</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.660665421906214e-74</v>
+        <v>2.659659184581824e-74</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.636647267297663e-74</v>
+        <v>2.635917026099124e-74</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.620429164913772e-74</v>
+        <v>2.619874185909418e-74</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.611466316928604e-74</v>
+        <v>2.610997024618762e-74</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.609213925516267e-74</v>
+        <v>2.608751902833262e-74</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.613127192850847e-74</v>
+        <v>2.612605181159001e-74</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.62266132110644e-74</v>
+        <v>2.622023220202069e-74</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.63727151245712e-74</v>
+        <v>2.636472380568539e-74</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.656412969077006e-74</v>
+        <v>2.655419022864523e-74</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.679540893140178e-74</v>
+        <v>2.678329507696101e-74</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.706110486820698e-74</v>
+        <v>2.704670195669328e-74</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.735576952292708e-74</v>
+        <v>2.733907447390346e-74</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.767395491730274e-74</v>
+        <v>2.765507623465214e-74</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.801021307307457e-74</v>
+        <v>2.798937084499992e-74</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.835909601198409e-74</v>
+        <v>2.833662191100825e-74</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>2.871515575577157e-74</v>
+        <v>2.869149303873739e-74</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>2.907294432617857e-74</v>
+        <v>2.904864783424887e-74</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>2.942701374494566e-74</v>
+        <v>2.94027499036032e-74</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>2.977191603381348e-74</v>
+        <v>2.9748462852861e-74</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>3.010220321452352e-74</v>
+        <v>3.008045028808371e-74</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>3.041242730881639e-74</v>
+        <v>3.039337581533191e-74</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>3.069714033843276e-74</v>
+        <v>3.068190304066623e-74</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>3.095089432511402e-74</v>
+        <v>3.094069557014804e-74</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>3.116824129060085e-74</v>
+        <v>3.116441700983795e-74</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>3.134373325663398e-74</v>
+        <v>3.134773096579669e-74</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>3.147192224495465e-74</v>
+        <v>3.148530104408544e-74</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>3.154736027730354e-74</v>
+        <v>3.157179085076485e-74</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>3.156459937542172e-74</v>
+        <v>3.160186399189595e-74</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>3.151819161707905e-74</v>
+        <v>3.15701841259237e-74</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>3.14042971583549e-74</v>
+        <v>3.147291837842784e-74</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>3.122488961376921e-74</v>
+        <v>3.131166914742069e-74</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>3.098325587609947e-74</v>
+        <v>3.108926667578227e-74</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>3.068268283812387e-74</v>
+        <v>3.080854120639321e-74</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>3.03264573926197e-74</v>
+        <v>3.047232298213329e-74</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>2.991786643236498e-74</v>
+        <v>3.008344224588297e-74</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>2.946019685013795e-74</v>
+        <v>2.964472924052298e-74</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>2.895673553871557e-74</v>
+        <v>2.915901420893275e-74</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>2.841076939087602e-74</v>
+        <v>2.862912739399294e-74</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>2.782558529939766e-74</v>
+        <v>2.805789903858436e-74</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>2.720447015705721e-74</v>
+        <v>2.744815938558623e-74</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>2.655071085663297e-74</v>
+        <v>2.680273867787931e-74</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>2.586759429090338e-74</v>
+        <v>2.61244671583445e-74</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>2.5158407352645e-74</v>
+        <v>2.541617506986084e-74</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>2.44264369346369e-74</v>
+        <v>2.468069265530987e-74</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>2.367496992965554e-74</v>
+        <v>2.392085015757051e-74</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>2.290729323047936e-74</v>
+        <v>2.31394778195237e-74</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>2.212673876056817e-74</v>
+        <v>2.23394994887366e-74</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>2.13374290299243e-74</v>
+        <v>2.152548239464827e-74</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>2.054416102175547e-74</v>
+        <v>2.070339578529528e-74</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.975175334345037e-74</v>
+        <v>1.987925385861531e-74</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.896502460239554e-74</v>
+        <v>1.905907081254383e-74</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.818879340597966e-74</v>
+        <v>1.824886084501851e-74</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.742787836159137e-74</v>
+        <v>1.745463815397703e-74</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.668709807661729e-74</v>
+        <v>1.66824169373549e-74</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.597127115844671e-74</v>
+        <v>1.593821139309046e-74</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.528521621446629e-74</v>
+        <v>1.522803571911928e-74</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.463375185206468e-74</v>
+        <v>1.455790411337903e-74</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.402169667863036e-74</v>
+        <v>1.393383077380719e-74</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.345386930155022e-74</v>
+        <v>1.336182989833957e-74</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.293508832821279e-74</v>
+        <v>1.284791568491371e-74</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.247015080882344e-74</v>
+        <v>1.239807506944887e-74</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.206015326171912e-74</v>
+        <v>1.201361515717069e-74</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.169832678441713e-74</v>
+        <v>1.168589614862099e-74</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.137689629982035e-74</v>
+        <v>1.14050057983767e-74</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.108808673083079e-74</v>
+        <v>1.116103186101396e-74</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.082412300035157e-74</v>
+        <v>1.094406209110992e-74</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.057723003128482e-74</v>
+        <v>1.074418424324084e-74</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.033963274653338e-74</v>
+        <v>1.055148607198361e-74</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.010355606899984e-74</v>
+        <v>1.035605533191489e-74</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>9.861401774421819e-75</v>
+        <v>1.01481754350719e-74</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>9.61113955807155e-75</v>
+        <v>9.924289745616775e-75</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>9.357295370765581e-75</v>
+        <v>9.688095004851676e-75</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>9.104771339209943e-75</v>
+        <v>9.443704128460642e-75</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>8.858469590111358e-75</v>
+        <v>9.195230032128343e-75</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>8.623292250176518e-75</v>
+        <v>8.946785631539468e-75</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>8.404141446111494e-75</v>
+        <v>8.702483842378038e-75</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>8.205287447932276e-75</v>
+        <v>8.466088714683997e-75</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>8.020322638672881e-75</v>
+        <v>8.23546874024628e-75</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>7.833945122027738e-75</v>
+        <v>8.003581631966611e-75</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>7.630581606023403e-75</v>
+        <v>7.763235257653943e-75</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>7.394658798686485e-75</v>
+        <v>7.507237485117261e-75</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>7.115294967515496e-75</v>
+        <v>7.230542023288315e-75</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>6.802600366754503e-75</v>
+        <v>6.937703966030223e-75</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>6.472554135432495e-75</v>
+        <v>6.635962737308172e-75</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>6.141135686150502e-75</v>
+        <v>6.332557886215049e-75</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>5.821836850650927e-75</v>
+        <v>6.033688866465668e-75</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>5.517059689476545e-75</v>
+        <v>5.740918329827386e-75</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>5.226117075847295e-75</v>
+        <v>5.454517291880437e-75</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>4.948321752168822e-75</v>
+        <v>5.174756713509616e-75</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>4.682986460846032e-75</v>
+        <v>4.901907555598959e-75</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>4.429423944284582e-75</v>
+        <v>4.636240779033268e-75</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>4.186946944890085e-75</v>
+        <v>4.378027344697312e-75</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>3.954868205067513e-75</v>
+        <v>4.127538213475171e-75</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>3.732500467222685e-75</v>
+        <v>3.885044346251837e-75</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>3.519156473760604e-75</v>
+        <v>3.650816703911419e-75</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>3.314148967086878e-75</v>
+        <v>3.42512624733868e-75</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>3.116790689606908e-75</v>
+        <v>3.208243937418163e-75</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>2.926394383726267e-75</v>
+        <v>3.000440735034596e-75</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>2.742298616934588e-75</v>
+        <v>2.801986564549206e-75</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>2.564465583328983e-75</v>
+        <v>2.613126320269073e-75</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>2.393498034408012e-75</v>
+        <v>2.434079186906485e-75</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>2.230027933676044e-75</v>
+        <v>2.265063176712889e-75</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>2.074687244637421e-75</v>
+        <v>2.106296301939696e-75</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>1.928107930796066e-75</v>
+        <v>1.957996574837893e-75</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>1.79092195565633e-75</v>
+        <v>1.8203820076589e-75</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>1.663761282722527e-75</v>
+        <v>1.693670612654099e-75</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>1.547257875498632e-75</v>
+        <v>1.578080402074534e-75</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>1.44204369748897e-75</v>
+        <v>1.473829388171597e-75</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>1.348750712197824e-75</v>
+        <v>1.381135583196638e-75</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>1.268010883129232e-75</v>
+        <v>1.300216999400765e-75</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>1.200456173787541e-75</v>
+        <v>1.231291649035393e-75</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>1.146585676092392e-75</v>
+        <v>1.174564588393349e-75</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>1.106145767670601e-75</v>
+        <v>1.130167478578963e-75</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>1.078618075208035e-75</v>
+        <v>1.098206165529417e-75</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>1.063483932788755e-75</v>
+        <v>1.078786466650979e-75</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>1.060224674496901e-75</v>
+        <v>1.072014199350016e-75</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>1.068321634416568e-75</v>
+        <v>1.077995181032847e-75</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>1.087256146631882e-75</v>
+        <v>1.09683522910581e-75</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>1.116509545226949e-75</v>
+        <v>1.128640160975237e-75</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>1.155563206108356e-75</v>
+        <v>1.173515833626417e-75</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>1.211448310116425e-75</v>
+        <v>1.238712910168091e-75</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>1.319807263981846e-75</v>
+        <v>1.358558470084548e-75</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>1.522558047122646e-75</v>
+        <v>1.573296336701733e-75</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>1.829244925426335e-75</v>
+        <v>1.891099462904045e-75</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>2.197851648605419e-75</v>
+        <v>2.269062613323328e-75</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>2.58176119243257e-75</v>
+        <v>2.659722817044191e-75</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>2.934356532679448e-75</v>
+        <v>3.015617103150206e-75</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>3.20902064511783e-75</v>
+        <v>3.289282500725072e-75</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>3.359707280357355e-75</v>
+        <v>3.43384983633446e-75</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>3.376762599147304e-75</v>
+        <v>3.440310262668253e-75</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>3.308210773887016e-75</v>
+        <v>3.359659431235906e-75</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>3.207188960280778e-75</v>
+        <v>3.248212212984361e-75</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>3.126834314033119e-75</v>
+        <v>3.162283478860843e-75</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>3.115041346906479e-75</v>
+        <v>3.152544249743797e-75</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>3.16880544321559e-75</v>
+        <v>3.214871239074544e-75</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>3.256499782529033e-75</v>
+        <v>3.314328571453848e-75</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>3.34617857654179e-75</v>
+        <v>3.415636993813648e-75</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>3.405896036949108e-75</v>
+        <v>3.483517253086173e-75</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>3.406023404476701e-75</v>
+        <v>3.485287803631205e-75</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>3.342996181373889e-75</v>
+        <v>3.417488712858379e-75</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>3.229660878318945e-75</v>
+        <v>3.295059040131668e-75</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>3.079119904565787e-75</v>
+        <v>3.133224742226295e-75</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>2.904475669367905e-75</v>
+        <v>2.947211775917027e-75</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.718735960621365e-75</v>
+        <v>2.752128133125397e-75</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.530568951518826e-75</v>
+        <v>2.557671589462255e-75</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>2.342590032271713e-75</v>
+        <v>2.365993889969472e-75</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>2.156965402469789e-75</v>
+        <v>2.178686771809306e-75</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>1.975861261702802e-75</v>
+        <v>1.997341972143994e-75</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.801443809560017e-75</v>
+        <v>1.82355122813529e-75</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.635879245631336e-75</v>
+        <v>1.658906276945583e-75</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.48130164339375e-75</v>
+        <v>1.50497465409175e-75</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.338723452182097e-75</v>
+        <v>1.362478939157302e-75</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.207769724582992e-75</v>
+        <v>1.231096540647099e-75</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.087979477914341e-75</v>
+        <v>1.110440053900745e-75</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>9.788917294944088e-76</v>
+        <v>1.0001220742582e-75</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>8.800454966414219e-76</v>
+        <v>8.997551970593913e-76</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>7.909797966733437e-76</v>
+        <v>8.08952017643976e-76</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>7.112336469084101e-76</v>
+        <v>7.273251313518881e-76</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>6.403460646648221e-76</v>
+        <v>6.544871335230282e-76</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>5.778560672605942e-76</v>
+        <v>5.900506194971044e-76</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>5.233026720139815e-76</v>
+        <v>5.336281846140727e-76</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>4.762248962430276e-76</v>
+        <v>4.848324242136702e-76</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>4.361617572659268e-76</v>
+        <v>4.432759336357905e-76</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>4.026420224344089e-76</v>
+        <v>4.085589927181852e-76</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>3.749164184794613e-76</v>
+        <v>3.799478109507127e-76</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>3.519318850516364e-76</v>
+        <v>3.563435926834396e-76</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>3.326199498800164e-76</v>
+        <v>3.366290245910008e-76</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>3.159121406936058e-76</v>
+        <v>3.196867933479519e-76</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>3.007399852214622e-76</v>
+        <v>3.043995856289026e-76</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>2.860350111926373e-76</v>
+        <v>2.896500881084565e-76</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>2.707287463361442e-76</v>
+        <v>2.743209874611783e-76</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>2.537533055798826e-76</v>
+        <v>2.572955755149977e-76</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>2.345076619513988e-76</v>
+        <v>2.379382770783525e-76</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>2.136964824577286e-76</v>
+        <v>2.169591344748511e-76</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>1.922509490237772e-76</v>
+        <v>1.953016309765315e-76</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>1.711022435744518e-76</v>
+        <v>1.739092498554336e-76</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>1.511815480346023e-76</v>
+        <v>1.537254743835395e-76</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>1.334200443291514e-76</v>
+        <v>1.356937878329048e-76</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>1.187489143829549e-76</v>
+        <v>1.207576734755178e-76</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>1.080993401209187e-76</v>
+        <v>1.098606145834169e-76</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>1.024025034679341e-76</v>
+        <v>1.039460944286262e-76</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>1.025895863488786e-76</v>
+        <v>1.039575962831556e-76</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>1.095917706886485e-76</v>
+        <v>1.108386034190341e-76</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>1.243402384121153e-76</v>
+        <v>1.255325991082657e-76</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>1.477661714441936e-76</v>
+        <v>1.489830666228976e-76</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>1.808533075604065e-76</v>
+        <v>1.821871122879631e-76</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>2.252430202982139e-76</v>
+        <v>2.268128321831882e-76</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>2.830242328373872e-76</v>
+        <v>2.84984960001529e-76</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>3.562944462036952e-76</v>
+        <v>3.588369814642173e-76</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>4.471511614231459e-76</v>
+        <v>4.505023822927255e-76</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>5.576918795215574e-76</v>
+        <v>5.621146482083351e-76</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>6.854087376055058e-76</v>
+        <v>6.911220638890176e-76</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>7.856936286907342e-76</v>
+        <v>7.921428334812503e-76</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>7.913757632171095e-76</v>
+        <v>7.968413390670536e-76</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>7.105565570419923e-76</v>
+        <v>7.134382078052008e-76</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>7.13095799260996e-76</v>
+        <v>7.147844854210527e-76</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>7.697193757219567e-76</v>
+        <v>7.713816794499425e-76</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>8.261411438594706e-76</v>
+        <v>8.283077732567168e-76</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>8.329177600505474e-76</v>
+        <v>8.355188671314463e-76</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>7.91656143431882e-76</v>
+        <v>7.943936278936815e-76</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>7.345671769730328e-76</v>
+        <v>7.371378774291389e-76</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>6.939832003223528e-76</v>
+        <v>6.960834543885903e-76</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>6.802152358643449e-76</v>
+        <v>6.816560686879111e-76</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>6.676050779156101e-76</v>
+        <v>6.684942212816728e-76</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>6.43861552693311e-76</v>
+        <v>6.444278867589917e-76</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>6.10947348107299e-76</v>
+        <v>6.113772400164064e-76</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>5.712715644400933e-76</v>
+        <v>5.717037426618159e-76</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>5.272433019742988e-76</v>
+        <v>5.277688563032071e-76</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>4.812716609925372e-76</v>
+        <v>4.81934042548582e-76</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>4.357657417773035e-76</v>
+        <v>4.36560763005817e-76</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>3.930363242013452e-76</v>
+        <v>3.939145937709638e-76</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>3.539840052868096e-76</v>
+        <v>3.54885851166983e-76</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>3.18454187923256e-76</v>
+        <v>3.193357891915239e-76</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>2.862668292859963e-76</v>
+        <v>2.871008462892849e-76</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>2.572418865503298e-76</v>
+        <v>2.580174609049527e-76</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>2.311993168914794e-76</v>
+        <v>2.319220714831368e-76</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>2.079590774847671e-76</v>
+        <v>2.086511164685461e-76</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.873411255054255e-76</v>
+        <v>1.880410343058006e-76</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.69165486095462e-76</v>
+        <v>1.699282827519683e-76</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>1.532714561502067e-76</v>
+        <v>1.541547955317066e-76</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>1.395440067638973e-76</v>
+        <v>1.405754844536287e-76</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.27874726320714e-76</v>
+        <v>1.290471415945981e-76</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.181552032048293e-76</v>
+        <v>1.194265590314709e-76</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.102693672045541e-76</v>
+        <v>1.115645607203768e-76</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.039724215987726e-76</v>
+        <v>1.052116577974388e-76</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>9.891271136241211e-77</v>
+        <v>1.000350898344418e-76</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>9.473534409808407e-77</v>
+        <v>9.569957361320042e-77</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>9.108542740841682e-77</v>
+        <v>9.186982591554691e-77</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>8.760806889602428e-77</v>
+        <v>8.821056352329838e-77</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>8.394837616353005e-77</v>
+        <v>8.438650321828213e-77</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>7.978517861303277e-77</v>
+        <v>8.009462894360947e-77</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>7.514085612919177e-77</v>
+        <v>7.53606555820957e-77</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>7.023839971219738e-77</v>
+        <v>7.040225548386177e-77</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>6.530331430837565e-77</v>
+        <v>6.543950650249185e-77</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>6.056110486403927e-77</v>
+        <v>6.069248649155659e-77</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>5.623647977032163e-77</v>
+        <v>5.638046849566773e-77</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>5.243180877053088e-77</v>
+        <v>5.259911925775818e-77</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>4.899643732751846e-77</v>
+        <v>4.918845944245209e-77</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>4.5755773612577e-77</v>
+        <v>4.596470332970392e-77</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>4.263803016999577e-77</v>
+        <v>4.28531931279951e-77</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>3.964663320244326e-77</v>
+        <v>3.985911113914625e-77</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>3.678672991088362e-77</v>
+        <v>3.698946652285909e-77</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>3.406346749628345e-77</v>
+        <v>3.425126843883786e-77</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>3.148199315960197e-77</v>
+        <v>3.165152604677933e-77</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>2.904745410180799e-77</v>
+        <v>2.919724850638996e-77</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>2.676493968415396e-77</v>
+        <v>2.689537687520387e-77</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>2.463562821825279e-77</v>
+        <v>2.474824722651162e-77</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>2.265436793635268e-77</v>
+        <v>2.275074241300716e-77</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.081542997950332e-77</v>
+        <v>2.089706580332854e-77</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.911308548875987e-77</v>
+        <v>1.918142076611929e-77</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>1.754160560517694e-77</v>
+        <v>1.759801067002241e-77</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>1.6095261469805e-77</v>
+        <v>1.614103888367669e-77</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>1.47683242236988e-77</v>
+        <v>1.480470877572527e-77</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>1.355506500791266e-77</v>
+        <v>1.358322371481085e-77</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>1.244975496349769e-77</v>
+        <v>1.247078706957288e-77</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.144666523150916e-77</v>
+        <v>1.146160220865501e-77</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.054006695299855e-77</v>
+        <v>1.054987250069708e-77</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>9.724231269020087e-78</v>
+        <v>9.729801314341678e-78</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>8.993429320627676e-78</v>
+        <v>8.995592018231088e-78</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>8.341932248873289e-78</v>
+        <v>8.341447981005633e-78</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>7.764011194810894e-78</v>
+        <v>7.761572571307655e-78</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>7.253937299494204e-78</v>
+        <v>7.250169157779233e-78</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>6.805981703975588e-78</v>
+        <v>6.801441109061094e-78</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>6.414415549308809e-78</v>
+        <v>6.409591793795376e-78</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>6.073509976547437e-78</v>
+        <v>6.06882458062401e-78</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>5.777536126744143e-78</v>
+        <v>5.773342838188032e-78</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>5.520765140952748e-78</v>
+        <v>5.517349935129629e-78</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>5.297468160226076e-78</v>
+        <v>5.295049240089991e-78</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>5.101916325617654e-78</v>
+        <v>5.100644121711012e-78</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>4.928380778180763e-78</v>
+        <v>4.928337948634336e-78</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>4.771132658968819e-78</v>
+        <v>4.772334089501745e-78</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>4.624443109034822e-78</v>
+        <v>4.626835912954605e-78</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>4.483251678943179e-78</v>
+        <v>4.486723817082223e-78</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>4.346220348942538e-78</v>
+        <v>4.350648634821335e-78</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>4.213299322155167e-78</v>
+        <v>4.218566035150163e-78</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>4.084440046535728e-78</v>
+        <v>4.090432947932921e-78</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>3.959593970038543e-78</v>
+        <v>3.966206303033486e-78</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>3.838712540618278e-78</v>
+        <v>3.845843030316076e-78</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>3.721747206229591e-78</v>
+        <v>3.729300059644901e-78</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>3.608649414826821e-78</v>
+        <v>3.616534320883855e-78</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>3.499370614364628e-78</v>
+        <v>3.507502743897148e-78</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>3.393862252797656e-78</v>
+        <v>3.402162258548979e-78</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>3.292075778080266e-78</v>
+        <v>3.300469794703261e-78</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>3.193962638167192e-78</v>
+        <v>3.202382282224282e-78</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>3.099474281012812e-78</v>
+        <v>3.107856650975971e-78</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>3.008562154571764e-78</v>
+        <v>3.01684983082252e-78</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>2.921177706798678e-78</v>
+        <v>2.929318751628112e-78</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>2.837272385647948e-78</v>
+        <v>2.845220343256693e-78</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>2.756797639074205e-78</v>
+        <v>2.764511535572448e-78</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>2.67970491503207e-78</v>
+        <v>2.687149258439549e-78</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>2.605945661475953e-78</v>
+        <v>2.613090441721961e-78</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>2.535471326360478e-78</v>
+        <v>2.54229201528386e-78</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>2.468233357640256e-78</v>
+        <v>2.47471090898941e-78</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>2.404183203269716e-78</v>
+        <v>2.410304052702593e-78</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>2.343272311203525e-78</v>
+        <v>2.349028376287628e-78</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>2.285452129396126e-78</v>
+        <v>2.290840809608511e-78</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>2.230674105802125e-78</v>
+        <v>2.235698282529401e-78</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>2.178889688376119e-78</v>
+        <v>2.18355772491445e-78</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>2.130050325072568e-78</v>
+        <v>2.134376066627666e-78</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>2.084107463846069e-78</v>
+        <v>2.088110237533205e-78</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>2.041012552651212e-78</v>
+        <v>2.044717167495206e-78</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>2.000717039442471e-78</v>
+        <v>2.004153786377695e-78</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.963172372174437e-78</v>
+        <v>1.966377024044818e-78</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.928329998801692e-78</v>
+        <v>1.93134381036071e-78</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.896141367278725e-78</v>
+        <v>1.899011075189411e-78</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.866557925560144e-78</v>
+        <v>1.869335748395084e-78</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.839531121600448e-78</v>
+        <v>1.842274759841781e-78</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.815040569638e-78</v>
+        <v>1.817810778523124e-78</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.793198971168315e-78</v>
+        <v>1.796048092250894e-78</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.774158297907245e-78</v>
+        <v>1.777126875050837e-78</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.758070527262511e-78</v>
+        <v>1.761187306150082e-78</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.745087636641894e-78</v>
+        <v>1.748369564775816e-78</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.735361603453123e-78</v>
+        <v>1.738813830155179e-78</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.729044405103966e-78</v>
+        <v>1.732660281515343e-78</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.726288019002175e-78</v>
+        <v>1.730049098083471e-78</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.727244422555498e-78</v>
+        <v>1.731120459086718e-78</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.732065593171694e-78</v>
+        <v>1.736014543752251e-78</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.740903508258505e-78</v>
+        <v>1.744871531307219e-78</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.753886065753332e-78</v>
+        <v>1.757807999340537e-78</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.770711045882072e-78</v>
+        <v>1.774518942969321e-78</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.790705334720945e-78</v>
+        <v>1.794335823170584e-78</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.813183665135032e-78</v>
+        <v>1.816578188878064e-78</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.837460769989339e-78</v>
+        <v>1.840565589025424e-78</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.862851382148955e-78</v>
+        <v>1.865617572546411e-78</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.888670234478904e-78</v>
+        <v>1.891053688374706e-78</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.914232059844207e-78</v>
+        <v>1.91619348544399e-78</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.938851591109957e-78</v>
+        <v>1.94035651268801e-78</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.961843561141175e-78</v>
+        <v>1.962862319040447e-78</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.982522702802889e-78</v>
+        <v>1.983030453434986e-78</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>2.000203748960181e-78</v>
+        <v>2.000180464805367e-78</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.014201432478075e-78</v>
+        <v>2.013631902085271e-78</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>2.023830486221613e-78</v>
+        <v>2.022704314208397e-78</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>2.028405643055853e-78</v>
+        <v>2.026717250108463e-78</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>2.027699544730154e-78</v>
+        <v>2.025449661453284e-78</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>2.023597454133638e-78</v>
+        <v>2.020800013117345e-78</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>2.018593488814848e-78</v>
+        <v>2.015277610919253e-78</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>2.015181823154031e-78</v>
+        <v>2.011391817694726e-78</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>2.015856631531425e-78</v>
+        <v>2.011651996279466e-78</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>2.023112088327281e-78</v>
+        <v>2.018567509509195e-78</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>2.039442367921827e-78</v>
+        <v>2.034647720219607e-78</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>2.067341644695335e-78</v>
+        <v>2.062401991246443e-78</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>2.109300470290054e-78</v>
+        <v>2.104336018747437e-78</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>2.166687163104811e-78</v>
+        <v>2.161819654134122e-78</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>2.238164709619093e-78</v>
+        <v>2.233484604082667e-78</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>2.321996636287352e-78</v>
+        <v>2.317558270216426e-78</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>2.416446469563989e-78</v>
+        <v>2.412268054158704e-78</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>2.519777735903673e-78</v>
+        <v>2.515841357533073e-78</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>2.630253961760816e-78</v>
+        <v>2.626505581962847e-78</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>2.746138673589809e-78</v>
+        <v>2.742488129071319e-78</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.865695397845355e-78</v>
+        <v>2.862016400482095e-78</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.987142175564584e-78</v>
+        <v>2.983277064172461e-78</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>3.108142010233107e-78</v>
+        <v>3.103959734239606e-78</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>3.225986934744847e-78</v>
+        <v>3.221421808750421e-78</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>3.337962193759999e-78</v>
+        <v>3.333014606691372e-78</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>3.441353031939053e-78</v>
+        <v>3.436089447049221e-78</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>3.533444693942195e-78</v>
+        <v>3.527997648810428e-78</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>3.611522424429651e-78</v>
+        <v>3.606090530961491e-78</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>3.672871468061855e-78</v>
+        <v>3.667719412489113e-78</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>3.714777069499018e-78</v>
+        <v>3.71023561237978e-78</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>3.734582073089467e-78</v>
+        <v>3.731039633201106e-78</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>3.730449323371304e-78</v>
+        <v>3.728232164399709e-78</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>3.701152154987076e-78</v>
+        <v>3.700435184522159e-78</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>3.645478453480121e-78</v>
+        <v>3.646283096928988e-78</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>3.562216104393841e-78</v>
+        <v>3.564410304980786e-78</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>3.450152993271736e-78</v>
+        <v>3.453451212038244e-78</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>3.308078812331515e-78</v>
+        <v>3.312042070270779e-78</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>3.137714590596583e-78</v>
+        <v>3.1418188320796e-78</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>2.949673668887848e-78</v>
+        <v>2.95351714448591e-78</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>2.756249233641844e-78</v>
+        <v>2.75959167679208e-78</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.569734470394273e-78</v>
+        <v>2.57249709738922e-78</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.399977913583677e-78</v>
+        <v>2.402215118183893e-78</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>2.247259076602741e-78</v>
+        <v>2.249047635147547e-78</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.1095164951979e-78</v>
+        <v>2.110928461600823e-78</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>1.984688705115063e-78</v>
+        <v>1.98579141086383e-78</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.870714242100514e-78</v>
+        <v>1.871570296257055e-78</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.76553164190041e-78</v>
+        <v>1.766198931100856e-78</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.667079440260992e-78</v>
+        <v>1.667611128715675e-78</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.573296172928241e-78</v>
+        <v>1.573740702421694e-78</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.482120375648483e-78</v>
+        <v>1.482521465539444e-78</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.391788471570832e-78</v>
+        <v>1.392184694604091e-78</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.302252151236921e-78</v>
+        <v>1.302674491022812e-78</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>1.21407578937485e-78</v>
+        <v>1.214546767934197e-78</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>1.127824525366028e-78</v>
+        <v>1.128358202041292e-78</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>1.044063498592106e-78</v>
+        <v>1.04466547004738e-78</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>9.633578484347253e-79</v>
+        <v>9.64025248655737e-79</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>8.862727142753087e-79</v>
+        <v>8.869942145694214e-79</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>8.133732354955004e-79</v>
+        <v>8.141290444917115e-79</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>7.452213393369252e-79</v>
+        <v>7.459832550221577e-79</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>6.82067507160618e-79</v>
+        <v>6.828039622664249e-79</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>6.235949825515504e-79</v>
+        <v>6.242802337395068e-79</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>5.69426799638074e-79</v>
+        <v>5.700419028859027e-79</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>5.191859925486995e-79</v>
+        <v>5.197188031502719e-79</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>4.724955954119233e-79</v>
+        <v>4.72940767977259e-79</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>4.289786423561182e-79</v>
+        <v>4.293376308113848e-79</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>3.882581675097834e-79</v>
+        <v>3.88539225097297e-79</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>3.49957205001409e-79</v>
+        <v>3.501753842796337e-79</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.137088987234095e-79</v>
+        <v>3.138857930757689e-79</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>2.793861017337846e-79</v>
+        <v>2.795437163722736e-79</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.471054369677727e-79</v>
+        <v>2.472599561103869e-79</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.169944493387478e-79</v>
+        <v>2.171559569512209e-79</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.891806837601959e-79</v>
+        <v>1.893531635559999e-79</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.637916851454989e-79</v>
+        <v>1.639730205858438e-79</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.409549984081152e-79</v>
+        <v>1.411369727019492e-79</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.207981684614938e-79</v>
+        <v>1.209664645655031e-79</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.034487402190304e-79</v>
+        <v>1.035829408376396e-79</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>8.902003299481228e-80</v>
+        <v>8.909724921729929e-80</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>7.756392274890368e-80</v>
+        <v>7.757446689587632e-80</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>6.911570021016678e-80</v>
+        <v>6.906731636078741e-80</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>6.370733569593669e-80</v>
+        <v>6.362498522308825e-80</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>6.115649314670301e-80</v>
+        <v>6.106850739139929e-80</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>6.094119715300679e-80</v>
+        <v>6.085925174755715e-80</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>6.251877541891198e-80</v>
+        <v>6.244883772154447e-80</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>6.535038748181664e-80</v>
+        <v>6.529780411559662e-80</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>6.88972021445072e-80</v>
+        <v>6.886671129903223e-80</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>7.262259073426375e-80</v>
+        <v>7.26182565881426e-80</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>7.604081105899567e-80</v>
+        <v>7.606450869601581e-80</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>7.871713463016922e-80</v>
+        <v>7.876703116755494e-80</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>8.021906092836617e-80</v>
+        <v>8.028954918167415e-80</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>8.011408943417525e-80</v>
+        <v>8.019578791729457e-80</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>7.797008976036993e-80</v>
+        <v>7.804984466983664e-80</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>7.373962175100502e-80</v>
+        <v>7.380256932754724e-80</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>6.848740456895884e-80</v>
+        <v>6.852293349119639e-80</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>6.347796615548772e-80</v>
+        <v>6.348078873412273e-80</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>5.991358105771954e-80</v>
+        <v>5.988371659915777e-80</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>5.782852380091028e-80</v>
+        <v>5.777098647503113e-80</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>5.621918640360228e-80</v>
+        <v>5.614370788367759e-80</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>5.404584484817471e-80</v>
+        <v>5.396686465934576e-80</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>5.050068795962378e-80</v>
+        <v>5.043570427786894e-80</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>4.575763407616529e-80</v>
+        <v>4.572022235845209e-80</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>4.025033236861461e-80</v>
+        <v>4.024829832988688e-80</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>3.441243366111001e-80</v>
+        <v>3.444781326253065e-80</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>2.867758877779093e-80</v>
+        <v>2.874664822674189e-80</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>2.347941696603629e-80</v>
+        <v>2.357265319198848e-80</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>1.913831774811073e-80</v>
+        <v>1.924216465349268e-80</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>1.560708079314649e-80</v>
+        <v>1.570944922997434e-80</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>1.276401709327308e-80</v>
+        <v>1.285541727629174e-80</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>1.048743764062984e-80</v>
+        <v>1.056097914731298e-80</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>8.65565342735403e-81</v>
+        <v>8.707045197904124e-81</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>7.146975445578245e-81</v>
+        <v>7.174525782926492e-81</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>5.839716288946356e-81</v>
+        <v>5.844332880023649e-81</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>4.686892485860283e-81</v>
+        <v>4.673070763606218e-81</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>3.826026007295214e-81</v>
+        <v>3.802833115813166e-81</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>3.230741426906289e-81</v>
+        <v>3.205967386040235e-81</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>2.839705431686312e-81</v>
+        <v>2.81883346522334e-81</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>2.591584708627153e-81</v>
+        <v>2.577791244297473e-81</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>2.425045944721906e-81</v>
+        <v>2.419200614198836e-81</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>2.287154258806316e-81</v>
+        <v>2.288162028656238e-81</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>2.164793460328346e-81</v>
+        <v>2.171216745126307e-81</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>2.056636280537916e-81</v>
+        <v>2.06717519383471e-81</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.961357260399142e-81</v>
+        <v>1.974849688444534e-81</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.877630940876442e-81</v>
+        <v>1.893052542619153e-81</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.804131862934191e-81</v>
+        <v>1.820596070021902e-81</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.739534567536571e-81</v>
+        <v>1.756292584315924e-81</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.682513595647965e-81</v>
+        <v>1.698954399164564e-81</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.631743488232731e-81</v>
+        <v>1.64739382823114e-81</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.58589878625509e-81</v>
+        <v>1.600423185178832e-81</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.543654030679441e-81</v>
+        <v>1.556854783671004e-81</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.503685617215734e-81</v>
+        <v>1.515502590666493e-81</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.465026352325399e-81</v>
+        <v>1.475498272924583e-81</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.42748688951193e-81</v>
+        <v>1.436666859705557e-81</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.390980492247321e-81</v>
+        <v>1.398924845429973e-81</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.355420424003666e-81</v>
+        <v>1.362188724518492e-81</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.320719948253056e-81</v>
+        <v>1.326374991391777e-81</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.28679232846749e-81</v>
+        <v>1.29140014047039e-81</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.253550828119058e-81</v>
+        <v>1.257180666174992e-81</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.220908710679851e-81</v>
+        <v>1.223633062926243e-81</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.188779239621871e-81</v>
+        <v>1.190673825144708e-81</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.157075678417235e-81</v>
+        <v>1.158219447251076e-81</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.125711290537947e-81</v>
+        <v>1.126186423665917e-81</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.094599339456096e-81</v>
+        <v>1.094491248809888e-81</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.063653088643771e-81</v>
+        <v>1.063050417103647e-81</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.032785801572975e-81</v>
+        <v>1.031780422967763e-81</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.001910741715798e-81</v>
+        <v>1.000597760822894e-81</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>9.709411725443263e-82</v>
+        <v>9.694189250896965e-82</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>9.397903575305667e-82</v>
+        <v>9.381604101887425e-82</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>9.083715601466057e-82</v>
+        <v>9.067387105406873e-82</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>8.767027603697579e-82</v>
+        <v>8.751721127459837e-82</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>8.452849345569974e-82</v>
+        <v>8.439484115710903e-82</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>8.147582219091649e-82</v>
+        <v>8.136906783484054e-82</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>7.857627745486797e-82</v>
+        <v>7.850219969710532e-82</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>7.589387445980445e-82</v>
+        <v>7.585654513322413e-82</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>7.349262841797338e-82</v>
+        <v>7.349441253251491e-82</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>7.143655454162388e-82</v>
+        <v>7.147811028429727e-82</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>6.978966804299968e-82</v>
+        <v>6.986994677788548e-82</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>6.861598413435105e-82</v>
+        <v>6.873223040260025e-82</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>6.797951802792332e-82</v>
+        <v>6.812726954775747e-82</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>6.794428493596522e-82</v>
+        <v>6.811737260267633e-82</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>6.857430007072332e-82</v>
+        <v>6.87648479566739e-82</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>6.993357864444616e-82</v>
+        <v>7.013200399906922e-82</v>
       </c>
     </row>
   </sheetData>
